--- a/src/main/resources/Data/Pre_Requisite.xlsx
+++ b/src/main/resources/Data/Pre_Requisite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkhare\git\VMS_Automation_TestNG_Cucumber\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF23A58-008F-4FB8-9D21-A110661399C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D63AE5-90C1-423A-A6FE-02CDEC8B6274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2614B4C3-0DE0-494E-9633-EDF4726DB0D6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>ClientID</t>
   </si>
@@ -50,6 +50,48 @@
   </si>
   <si>
     <t>sTestCaseID</t>
+  </si>
+  <si>
+    <t>CalvinDerekAG</t>
+  </si>
+  <si>
+    <t>Calvin Derek</t>
+  </si>
+  <si>
+    <t>ApprovalGroupName</t>
+  </si>
+  <si>
+    <t>ApprovalManager</t>
+  </si>
+  <si>
+    <t>AddApprovalGroupPO_GuideWellGroupInc</t>
+  </si>
+  <si>
+    <t>Primary Owner</t>
+  </si>
+  <si>
+    <t>Dunston</t>
+  </si>
+  <si>
+    <t>AddApprovalGroupPO_SEIT0019</t>
+  </si>
+  <si>
+    <t>Burns &amp; McDonnell</t>
+  </si>
+  <si>
+    <t>Acton Sara</t>
+  </si>
+  <si>
+    <t>AddAutomationGroup_WyndhamWorldwide</t>
+  </si>
+  <si>
+    <t>Wyndham Destinations</t>
+  </si>
+  <si>
+    <t>Automation Group</t>
+  </si>
+  <si>
+    <t>Perez Madalene</t>
   </si>
 </sst>
 </file>
@@ -100,9 +142,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,19 +460,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19F8F07-59A0-485F-A945-2110E9508699}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -439,8 +484,14 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -450,66 +501,126 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3670</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3858</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>392</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/Data/Pre_Requisite.xlsx
+++ b/src/main/resources/Data/Pre_Requisite.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkhare\git\VMS_Automation_TestNG_Cucumber\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D63AE5-90C1-423A-A6FE-02CDEC8B6274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C5B2D-C58C-4FF6-8A90-34C6C61E6AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2614B4C3-0DE0-494E-9633-EDF4726DB0D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2614B4C3-0DE0-494E-9633-EDF4726DB0D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
+    <sheet name="Approval Workflow" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="152">
   <si>
     <t>ClientID</t>
   </si>
@@ -92,13 +93,412 @@
   </si>
   <si>
     <t>Perez Madalene</t>
+  </si>
+  <si>
+    <t>sClientID</t>
+  </si>
+  <si>
+    <t>sObjectName</t>
+  </si>
+  <si>
+    <t>sReqTypeGroup</t>
+  </si>
+  <si>
+    <t>AllowOwnersToApproveWorkFlow</t>
+  </si>
+  <si>
+    <t>AcceptSingleApproval</t>
+  </si>
+  <si>
+    <t>sStepName</t>
+  </si>
+  <si>
+    <t>sFlowOrder</t>
+  </si>
+  <si>
+    <t>AllowToOverride</t>
+  </si>
+  <si>
+    <t>sField</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>CompareValue</t>
+  </si>
+  <si>
+    <t>sBusinessUnit</t>
+  </si>
+  <si>
+    <t>sAppovalGroup</t>
+  </si>
+  <si>
+    <t>sDefaultApprover</t>
+  </si>
+  <si>
+    <t>sRequireDefaultApproverOnly</t>
+  </si>
+  <si>
+    <t>sNamedApprovalGroup</t>
+  </si>
+  <si>
+    <t>sDOA Approval</t>
+  </si>
+  <si>
+    <t>UsePrimaryManagerApprovalAuthority</t>
+  </si>
+  <si>
+    <t>AWF1_GuideWellGroupInc</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>AWF1</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>PO Number</t>
+  </si>
+  <si>
+    <t>Equals</t>
+  </si>
+  <si>
+    <t>Robert (David) Dunston</t>
+  </si>
+  <si>
+    <t>AWF2_GuideWellGroupInc</t>
+  </si>
+  <si>
+    <t>AWF2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Derek Calvin</t>
+  </si>
+  <si>
+    <t>AWF3_GuideWellGroupInc</t>
+  </si>
+  <si>
+    <t>AWF3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Amendment Type</t>
+  </si>
+  <si>
+    <t>General Data Change</t>
+  </si>
+  <si>
+    <t>AWF4_GuideWellGroupInc</t>
+  </si>
+  <si>
+    <t>AWF4</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>CreateApprovalWorkFlow_SEIT0019</t>
+  </si>
+  <si>
+    <t>AWF</t>
+  </si>
+  <si>
+    <t>Sara Acton</t>
+  </si>
+  <si>
+    <t>AWF1_PA_DOA_ALL</t>
+  </si>
+  <si>
+    <t>Total Estimated Spend</t>
+  </si>
+  <si>
+    <t>Greater Than Or Equal To</t>
+  </si>
+  <si>
+    <t>Project Owner</t>
+  </si>
+  <si>
+    <t>Based on Primary Owner</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>AWF2_PA_DOA_SKIPTO</t>
+  </si>
+  <si>
+    <t>Skip To</t>
+  </si>
+  <si>
+    <t>AWF3_PA_DOA_NONE</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>AWF4_WyndhamWorldwide</t>
+  </si>
+  <si>
+    <t>Madalene Perez</t>
+  </si>
+  <si>
+    <t>DOA1</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>MSP Bill Amount</t>
+  </si>
+  <si>
+    <t>Less Than Or Equal To</t>
+  </si>
+  <si>
+    <t>DOA2</t>
+  </si>
+  <si>
+    <t>DOA3</t>
+  </si>
+  <si>
+    <t>ReqQty</t>
+  </si>
+  <si>
+    <t>Staff Aug Requisition</t>
+  </si>
+  <si>
+    <t>Prerequisite requisition</t>
+  </si>
+  <si>
+    <t>Requisition Estimated Spend</t>
+  </si>
+  <si>
+    <t>Not Equal To</t>
+  </si>
+  <si>
+    <t>Automation_Group_PI</t>
+  </si>
+  <si>
+    <t>Esther Abolila</t>
+  </si>
+  <si>
+    <t>ChryslerPrimarySkipTo</t>
+  </si>
+  <si>
+    <t>ChryslerPrimaryAll</t>
+  </si>
+  <si>
+    <t>ChryslerPrimaryNone</t>
+  </si>
+  <si>
+    <t>ChryslerSampleApprovalWorkFlow</t>
+  </si>
+  <si>
+    <t>Sample Approval Workflow</t>
+  </si>
+  <si>
+    <t>Default Approver</t>
+  </si>
+  <si>
+    <t>RUSSELL AACH</t>
+  </si>
+  <si>
+    <t>ChryslerAdditionWorkflow</t>
+  </si>
+  <si>
+    <t>Additional Work Flow</t>
+  </si>
+  <si>
+    <t>DONNA AARON</t>
+  </si>
+  <si>
+    <t>TMNANonePI</t>
+  </si>
+  <si>
+    <t>Staff Aug Requisition (pre-identified)</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>TMNAPISkipTo</t>
+  </si>
+  <si>
+    <t>PrimaryMgrEstimatedSpend_TMNA</t>
+  </si>
+  <si>
+    <t>TMNAPrimaryAllPI</t>
+  </si>
+  <si>
+    <t>TMNASkipToPI</t>
+  </si>
+  <si>
+    <t>MgrGettingValidation_TMNA</t>
+  </si>
+  <si>
+    <t>PI_ApprovalFlow_TMNA</t>
+  </si>
+  <si>
+    <t>Esther Choi</t>
+  </si>
+  <si>
+    <t>CoxSIApproval</t>
+  </si>
+  <si>
+    <t>SOW Service Invoice</t>
+  </si>
+  <si>
+    <t>SI Approval</t>
+  </si>
+  <si>
+    <t>Total Invoice Amount</t>
+  </si>
+  <si>
+    <t>Engagement Owner Approval Group</t>
+  </si>
+  <si>
+    <t>CoxSampleApprovalWorkFlow</t>
+  </si>
+  <si>
+    <t>Sample Approval WorkFlow</t>
+  </si>
+  <si>
+    <t>JeRon Leslie</t>
+  </si>
+  <si>
+    <t>AddApprovalGroupA_Engagement</t>
+  </si>
+  <si>
+    <t>Clorox Services Company</t>
+  </si>
+  <si>
+    <t>ApprovalGroupA</t>
+  </si>
+  <si>
+    <t>Abad Paulino;Abayakoon Priyanka</t>
+  </si>
+  <si>
+    <t>DoaAllStep3</t>
+  </si>
+  <si>
+    <t>Engagements</t>
+  </si>
+  <si>
+    <t>Test_SOW_NetherRequired_Eng</t>
+  </si>
+  <si>
+    <t>Step3</t>
+  </si>
+  <si>
+    <t>Additional Fund Requested</t>
+  </si>
+  <si>
+    <t>Greater Than</t>
+  </si>
+  <si>
+    <t>DoaSkipStep4</t>
+  </si>
+  <si>
+    <t>Step4</t>
+  </si>
+  <si>
+    <t>DoaNoneStep5</t>
+  </si>
+  <si>
+    <t>Step5</t>
+  </si>
+  <si>
+    <t>AddApprovalGroupB_Engagement</t>
+  </si>
+  <si>
+    <t>GroupB</t>
+  </si>
+  <si>
+    <t>1 Manager;2 Manager;3 Manager;Friedson Aaron</t>
+  </si>
+  <si>
+    <t>SingleApprovalCaseStep6</t>
+  </si>
+  <si>
+    <t>Step6</t>
+  </si>
+  <si>
+    <t>Manager 1</t>
+  </si>
+  <si>
+    <t>SingleApprovalCaseStep7</t>
+  </si>
+  <si>
+    <t>Step7</t>
+  </si>
+  <si>
+    <t>Manager 2</t>
+  </si>
+  <si>
+    <t>SingleApprovalCaseStep8</t>
+  </si>
+  <si>
+    <t>Step8</t>
+  </si>
+  <si>
+    <t>AllowOwnerToApprove9</t>
+  </si>
+  <si>
+    <t>Step9</t>
+  </si>
+  <si>
+    <t>Aaron Friedson</t>
+  </si>
+  <si>
+    <t>NegativeValueApprovalFlow</t>
+  </si>
+  <si>
+    <t>Step10</t>
+  </si>
+  <si>
+    <t>Less Than</t>
+  </si>
+  <si>
+    <t>Paulino Abad</t>
+  </si>
+  <si>
+    <t>PositiveValueApprovalFlow</t>
+  </si>
+  <si>
+    <t>Step11</t>
+  </si>
+  <si>
+    <t>EngagementOwnerApprovalGroup1</t>
+  </si>
+  <si>
+    <t>Step12</t>
+  </si>
+  <si>
+    <t>Requestor Role</t>
+  </si>
+  <si>
+    <t>Service Provider</t>
+  </si>
+  <si>
+    <t>EngagementOwnerApprovalGroup2</t>
+  </si>
+  <si>
+    <t>Step13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,16 +506,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -138,14 +581,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,9 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19F8F07-59A0-485F-A945-2110E9508699}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -625,4 +1129,2760 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D812B5-8171-4F80-B328-14E99E31455F}">
+  <dimension ref="A1:BE41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20" style="4"/>
+    <col min="4" max="4" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="4" customWidth="1"/>
+    <col min="8" max="13" width="20" style="4"/>
+    <col min="14" max="14" width="21.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="20" style="4"/>
+    <col min="19" max="19" width="36.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="20" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3670</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1234</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3670</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1111</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3670</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3670</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3858</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1234</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="4">
+        <v>392</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="4">
+        <v>392</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="4">
+        <v>392</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="4">
+        <v>392</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="4">
+        <v>12345</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="4">
+        <v>722</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="4">
+        <v>5000</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="4">
+        <v>722</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5000</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="4">
+        <v>722</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5000</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3260</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+    </row>
+    <row r="15" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="5">
+        <v>513</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+    </row>
+    <row r="16" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="5">
+        <v>513</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+    </row>
+    <row r="17" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="5">
+        <v>513</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+    </row>
+    <row r="18" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="5">
+        <v>513</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+    </row>
+    <row r="19" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="5">
+        <v>513</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+    </row>
+    <row r="20" spans="1:48" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="10">
+        <v>345</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU20" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="13">
+        <v>345</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU21" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="13">
+        <v>345</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="U22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU22" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="13">
+        <v>345</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="S23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU23" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="13">
+        <v>345</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="U24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="V24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU24" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="13">
+        <v>345</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU25" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="13">
+        <v>345</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU26" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="V27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU27" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU28" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="5">
+        <v>672</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="4">
+        <v>672</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="4">
+        <v>672</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="4">
+        <v>672</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="4">
+        <v>672</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="4">
+        <v>672</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="4">
+        <v>672</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="4">
+        <v>672</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="4">
+        <v>672</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="4">
+        <v>672</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="4">
+        <v>672</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="4">
+        <v>672</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>